--- a/dados/csv/2023/analise_descritiva/dados/flex-plataforma.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/flex-plataforma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -436,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,11 +470,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -505,13 +529,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -543,25 +585,43 @@
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>1463</v>
@@ -591,18 +651,36 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L3" s="3">
-        <v>90.1669167946294</v>
-      </c>
-      <c r="M3" s="1">
+        <v>77.41063997458096</v>
+      </c>
+      <c r="M3" s="3">
+        <v>39.50983355883143</v>
+      </c>
+      <c r="N3" s="3">
+        <v>10.77163914429046</v>
+      </c>
+      <c r="O3" s="3">
+        <v>461.5197709071476</v>
+      </c>
+      <c r="P3" s="1">
         <v>203646</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>147.2494577006508</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="1">
+        <v>327.6748910926806</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U3">
         <v>2016</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>2023</v>
       </c>
     </row>

--- a/dados/csv/2023/analise_descritiva/dados/flex-plataforma.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/flex-plataforma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -454,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,14 +488,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -547,13 +567,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -594,34 +629,49 @@
       <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>1463</v>
@@ -636,51 +686,66 @@
         <v>0.9453178400546821</v>
       </c>
       <c r="G3" s="3">
+        <v>15599716.7029188</v>
+      </c>
+      <c r="H3" s="3">
+        <v>11279.62162177787</v>
+      </c>
+      <c r="I3" s="3">
+        <v>16430.30708090436</v>
+      </c>
+      <c r="J3" s="3">
+        <v>12.04441558726698</v>
+      </c>
+      <c r="K3" s="3">
+        <v>198811.9434626772</v>
+      </c>
+      <c r="L3" s="3">
         <v>18362131.9375591</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="3">
         <v>13277.02960054888</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>33934.82811955066</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>77.41063997458096</v>
       </c>
-      <c r="M3" s="3">
+      <c r="R3" s="3">
         <v>39.50983355883143</v>
       </c>
-      <c r="N3" s="3">
+      <c r="S3" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="O3" s="3">
+      <c r="T3" s="3">
         <v>461.5197709071476</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>203646</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>147.2494577006508</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>327.6748910926806</v>
       </c>
-      <c r="S3" s="1">
+      <c r="X3" s="1">
         <v>1</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>7954</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2016</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2023</v>
       </c>
     </row>
